--- a/Code/Results/Cases/Case_4_151/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_151/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.97857605202119</v>
+        <v>22.48411053931328</v>
       </c>
       <c r="C2">
-        <v>13.05898866932961</v>
+        <v>12.12474253386311</v>
       </c>
       <c r="D2">
-        <v>8.238170034970947</v>
+        <v>12.87242235501401</v>
       </c>
       <c r="E2">
-        <v>6.563599701917116</v>
+        <v>12.01070280666081</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.221079685770391</v>
+        <v>3.887492531174642</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>68.17057679634244</v>
+        <v>61.20418227962203</v>
       </c>
       <c r="J2">
-        <v>4.286074396472888</v>
+        <v>7.495427481341818</v>
       </c>
       <c r="K2">
-        <v>13.67027997476478</v>
+        <v>21.30710668470582</v>
       </c>
       <c r="L2">
-        <v>9.831607820581922</v>
+        <v>15.16734931949151</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.65208226827813</v>
+        <v>22.59371181254442</v>
       </c>
       <c r="C3">
-        <v>12.34176101991624</v>
+        <v>11.92906728949868</v>
       </c>
       <c r="D3">
-        <v>8.092399853610642</v>
+        <v>12.88698142457251</v>
       </c>
       <c r="E3">
-        <v>6.6039936683548</v>
+        <v>12.04527495031158</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.234555097772029</v>
+        <v>3.891799353551133</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>64.90596693342255</v>
+        <v>60.08628510378195</v>
       </c>
       <c r="J3">
-        <v>4.301509207574047</v>
+        <v>7.502022298370764</v>
       </c>
       <c r="K3">
-        <v>13.29371363591106</v>
+        <v>21.35392906340678</v>
       </c>
       <c r="L3">
-        <v>9.679768533664458</v>
+        <v>15.17499305833283</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.47357734696165</v>
+        <v>22.66889880102869</v>
       </c>
       <c r="C4">
-        <v>11.89025629791023</v>
+        <v>11.80937440657771</v>
       </c>
       <c r="D4">
-        <v>8.008161412415362</v>
+        <v>12.8983251591707</v>
       </c>
       <c r="E4">
-        <v>6.632027785397841</v>
+        <v>12.06805272618521</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.242964183198776</v>
+        <v>3.894575297762941</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>62.8502780918877</v>
+        <v>59.38666125117727</v>
       </c>
       <c r="J4">
-        <v>4.311350654932547</v>
+        <v>7.506305255564684</v>
       </c>
       <c r="K4">
-        <v>13.07593176568056</v>
+        <v>21.38882339114314</v>
       </c>
       <c r="L4">
-        <v>9.591457096000584</v>
+        <v>15.18190412831808</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.40620616266982</v>
+        <v>22.70151270148482</v>
       </c>
       <c r="C5">
-        <v>11.70356869370685</v>
+        <v>11.76076542501966</v>
       </c>
       <c r="D5">
-        <v>7.975132035889026</v>
+        <v>12.90355183770694</v>
       </c>
       <c r="E5">
-        <v>6.644244047256016</v>
+        <v>12.07772531922656</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.246429447447463</v>
+        <v>3.89573973764732</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>61.99992691833943</v>
+        <v>59.09844415897171</v>
       </c>
       <c r="J5">
-        <v>4.315455346343011</v>
+        <v>7.508109568495643</v>
       </c>
       <c r="K5">
-        <v>12.9905239519722</v>
+        <v>21.40458309579464</v>
       </c>
       <c r="L5">
-        <v>9.556677683159597</v>
+        <v>15.1852780813473</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.39533893928824</v>
+        <v>22.70704718674945</v>
       </c>
       <c r="C6">
-        <v>11.67241034965559</v>
+        <v>11.75270556829371</v>
       </c>
       <c r="D6">
-        <v>7.969725232373549</v>
+        <v>12.90445618458049</v>
       </c>
       <c r="E6">
-        <v>6.646319823315944</v>
+        <v>12.07935504732114</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.24700730083931</v>
+        <v>3.895935102629092</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>61.85797301297738</v>
+        <v>59.05040414801791</v>
       </c>
       <c r="J6">
-        <v>4.316142689883535</v>
+        <v>7.508412741104088</v>
       </c>
       <c r="K6">
-        <v>12.9765427139785</v>
+        <v>21.40729283039027</v>
       </c>
       <c r="L6">
-        <v>9.550974760379818</v>
+        <v>15.18587199973509</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.47264721811204</v>
+        <v>22.66933066166354</v>
       </c>
       <c r="C7">
-        <v>11.88774931294038</v>
+        <v>11.80871810314507</v>
       </c>
       <c r="D7">
-        <v>8.007710742045191</v>
+        <v>12.89839320324848</v>
       </c>
       <c r="E7">
-        <v>6.632189356739825</v>
+        <v>12.06818159237187</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.243010755443538</v>
+        <v>3.894590867112652</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>62.83886072333078</v>
+        <v>59.38278658061653</v>
       </c>
       <c r="J7">
-        <v>4.311405627456668</v>
+        <v>7.506329350115561</v>
       </c>
       <c r="K7">
-        <v>13.07476645026203</v>
+        <v>21.38902970415226</v>
       </c>
       <c r="L7">
-        <v>9.590983193025735</v>
+        <v>15.18194737294536</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.86135414193164</v>
+        <v>22.52025739052491</v>
       </c>
       <c r="C8">
-        <v>12.81404476669296</v>
+        <v>12.05721157370699</v>
       </c>
       <c r="D8">
-        <v>8.186799846598742</v>
+        <v>12.87694296946927</v>
       </c>
       <c r="E8">
-        <v>6.576843741456988</v>
+        <v>12.02230187965434</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.225700820354436</v>
+        <v>3.888950309691135</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>67.05566011478305</v>
+        <v>60.82160234635716</v>
       </c>
       <c r="J8">
-        <v>4.291322309934174</v>
+        <v>7.497652990121972</v>
       </c>
       <c r="K8">
-        <v>13.53762842314137</v>
+        <v>21.32197256916447</v>
       </c>
       <c r="L8">
-        <v>9.778214824694691</v>
+        <v>15.16952458614384</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.80441142010349</v>
+        <v>22.2909689304992</v>
       </c>
       <c r="C9">
-        <v>14.54008845353025</v>
+        <v>12.54578294919182</v>
       </c>
       <c r="D9">
-        <v>8.581069929047278</v>
+        <v>12.85397933904996</v>
       </c>
       <c r="E9">
-        <v>6.494991723228413</v>
+        <v>11.94460572883303</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.192598383479786</v>
+        <v>3.87892631133507</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>74.91661603245331</v>
+        <v>63.52922325953856</v>
       </c>
       <c r="J9">
-        <v>4.254701435563473</v>
+        <v>7.482483834886984</v>
       </c>
       <c r="K9">
-        <v>14.55401424496997</v>
+        <v>21.23944985248574</v>
       </c>
       <c r="L9">
-        <v>10.18587656604602</v>
+        <v>15.16275978330394</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.6170571937579</v>
+        <v>22.16152002836192</v>
       </c>
       <c r="C10">
-        <v>15.75352810214044</v>
+        <v>12.90246905908799</v>
       </c>
       <c r="D10">
-        <v>8.899225061439854</v>
+        <v>12.84877626258102</v>
       </c>
       <c r="E10">
-        <v>6.452753649143964</v>
+        <v>11.89496761212062</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.168422963906054</v>
+        <v>3.872184705621169</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>80.45361922255479</v>
+        <v>65.43777594361731</v>
       </c>
       <c r="J10">
-        <v>4.229278542655044</v>
+        <v>7.472451065109648</v>
       </c>
       <c r="K10">
-        <v>15.37141193919834</v>
+        <v>21.20894489323768</v>
       </c>
       <c r="L10">
-        <v>10.51257060111568</v>
+        <v>15.16851148427176</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.01529340494564</v>
+        <v>22.11121964913179</v>
       </c>
       <c r="C11">
-        <v>16.29472860234675</v>
+        <v>13.06362062828773</v>
       </c>
       <c r="D11">
-        <v>9.050810031923955</v>
+        <v>12.84894507044995</v>
       </c>
       <c r="E11">
-        <v>6.43785406207233</v>
+        <v>11.87399489102207</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.157357584176721</v>
+        <v>3.869251076678937</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>82.92685029018155</v>
+        <v>66.28628814356871</v>
       </c>
       <c r="J11">
-        <v>4.217982769628901</v>
+        <v>7.468125620658182</v>
       </c>
       <c r="K11">
-        <v>15.76017429407558</v>
+        <v>21.20165476032636</v>
       </c>
       <c r="L11">
-        <v>10.66782053855894</v>
+        <v>15.17345247867243</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.17047137559006</v>
+        <v>22.09341628628425</v>
       </c>
       <c r="C12">
-        <v>16.49826605322987</v>
+        <v>13.12443561276696</v>
       </c>
       <c r="D12">
-        <v>9.109269550443413</v>
+        <v>12.84937347482108</v>
       </c>
       <c r="E12">
-        <v>6.432874728136309</v>
+        <v>11.8662837038226</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.153147762318646</v>
+        <v>3.868159182485225</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>83.85762275665064</v>
+        <v>66.6045931623481</v>
       </c>
       <c r="J12">
-        <v>4.213739021020817</v>
+        <v>7.466521773031251</v>
       </c>
       <c r="K12">
-        <v>15.91001147590253</v>
+        <v>21.19984411225524</v>
       </c>
       <c r="L12">
-        <v>10.72764144294962</v>
+        <v>15.17565714173966</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.1368514642582</v>
+        <v>22.09719506961158</v>
       </c>
       <c r="C13">
-        <v>16.45449006628819</v>
+        <v>13.11134812260742</v>
       </c>
       <c r="D13">
-        <v>9.096630865281705</v>
+        <v>12.84926500413686</v>
       </c>
       <c r="E13">
-        <v>6.43391689456752</v>
+        <v>11.86793419196613</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.154055469411648</v>
+        <v>3.868393498320987</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>83.65740677743341</v>
+        <v>66.53617695286576</v>
       </c>
       <c r="J13">
-        <v>4.214651576133635</v>
+        <v>7.466865676588435</v>
       </c>
       <c r="K13">
-        <v>15.87762112709051</v>
+        <v>21.20019177954689</v>
       </c>
       <c r="L13">
-        <v>10.71471065711661</v>
+        <v>15.17516750231528</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.0279705413594</v>
+        <v>22.10972996453604</v>
       </c>
       <c r="C14">
-        <v>16.31150082474921</v>
+        <v>13.06862839660594</v>
       </c>
       <c r="D14">
-        <v>9.05559785809956</v>
+        <v>12.84897301227787</v>
       </c>
       <c r="E14">
-        <v>6.437430860052119</v>
+        <v>11.87335586565573</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.157011694816386</v>
+        <v>3.869160865757628</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>83.00353620912495</v>
+        <v>66.31253654491583</v>
       </c>
       <c r="J14">
-        <v>4.217632989389319</v>
+        <v>7.467992988754024</v>
       </c>
       <c r="K14">
-        <v>15.77244766159613</v>
+        <v>21.20148674459822</v>
       </c>
       <c r="L14">
-        <v>10.67272086866403</v>
+        <v>15.17362717570123</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.96185662148885</v>
+        <v>22.11757027235761</v>
       </c>
       <c r="C15">
-        <v>16.22373839283868</v>
+        <v>13.04243256901653</v>
       </c>
       <c r="D15">
-        <v>9.030604132672469</v>
+        <v>12.84884161754324</v>
       </c>
       <c r="E15">
-        <v>6.439670948994222</v>
+        <v>11.87670683050579</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.158819594903419</v>
+        <v>3.86963337161128</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>82.60229494087402</v>
+        <v>66.17515355765188</v>
       </c>
       <c r="J15">
-        <v>4.219463421187195</v>
+        <v>7.468687935661192</v>
       </c>
       <c r="K15">
-        <v>15.70837385202805</v>
+        <v>21.20240373454427</v>
       </c>
       <c r="L15">
-        <v>10.64713778887905</v>
+        <v>15.17272710608371</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.59162763361513</v>
+        <v>22.16498088466631</v>
       </c>
       <c r="C16">
-        <v>15.71795361290456</v>
+        <v>12.89191079515195</v>
       </c>
       <c r="D16">
-        <v>8.889462300402602</v>
+        <v>12.84881624650704</v>
       </c>
       <c r="E16">
-        <v>6.453817676714739</v>
+        <v>11.89637054202662</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.169143942081741</v>
+        <v>3.872379092662496</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>80.29113082567825</v>
+        <v>65.38191205266756</v>
       </c>
       <c r="J16">
-        <v>4.230021754147397</v>
+        <v>7.472738526003553</v>
       </c>
       <c r="K16">
-        <v>15.34636066867135</v>
+        <v>21.20955411599441</v>
       </c>
       <c r="L16">
-        <v>10.50256435073197</v>
+        <v>15.16823530193459</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.3719898501361</v>
+        <v>22.1962718880725</v>
       </c>
       <c r="C17">
-        <v>15.4049945452159</v>
+        <v>12.79925057072227</v>
       </c>
       <c r="D17">
-        <v>8.804677693856396</v>
+        <v>12.8494500848548</v>
       </c>
       <c r="E17">
-        <v>6.463629583756708</v>
+        <v>11.90884506530849</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.175453705029012</v>
+        <v>3.874097509052209</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>78.86210519964155</v>
+        <v>64.89011070273692</v>
       </c>
       <c r="J17">
-        <v>4.236564564267681</v>
+        <v>7.475284382889678</v>
       </c>
       <c r="K17">
-        <v>15.12872750835131</v>
+        <v>21.21562985062571</v>
       </c>
       <c r="L17">
-        <v>10.41562204982438</v>
+        <v>15.16607467631907</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.24832892412056</v>
+        <v>22.21507730224179</v>
       </c>
       <c r="C18">
-        <v>15.22396017499491</v>
+        <v>12.74585359060044</v>
       </c>
       <c r="D18">
-        <v>8.756551783218042</v>
+        <v>12.85005334514398</v>
       </c>
       <c r="E18">
-        <v>6.469676384606688</v>
+        <v>11.91617145358285</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.179077202385692</v>
+        <v>3.87509843891486</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>78.03581775505812</v>
+        <v>64.60539534795774</v>
       </c>
       <c r="J18">
-        <v>4.240353493979933</v>
+        <v>7.476771153923885</v>
       </c>
       <c r="K18">
-        <v>15.00512930300479</v>
+        <v>21.21974429720743</v>
       </c>
       <c r="L18">
-        <v>10.36623413906428</v>
+        <v>15.16505078420695</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.20691071506487</v>
+        <v>22.2215829116163</v>
       </c>
       <c r="C19">
-        <v>15.16248470602701</v>
+        <v>12.72775846756162</v>
       </c>
       <c r="D19">
-        <v>8.74036518266387</v>
+        <v>12.85029859633925</v>
       </c>
       <c r="E19">
-        <v>6.471791794269492</v>
+        <v>11.91867805613975</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.180303349571203</v>
+        <v>3.875439494998068</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>77.75528438026286</v>
+        <v>64.50868439516387</v>
       </c>
       <c r="J19">
-        <v>4.241640911857862</v>
+        <v>7.47727841273714</v>
       </c>
       <c r="K19">
-        <v>14.96354742513698</v>
+        <v>21.22124374150671</v>
       </c>
       <c r="L19">
-        <v>10.34961649011429</v>
+        <v>15.16474171564657</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.39509271096266</v>
+        <v>22.19285724772692</v>
       </c>
       <c r="C20">
-        <v>15.43841511666891</v>
+        <v>12.80912526276141</v>
       </c>
       <c r="D20">
-        <v>8.813636463287436</v>
+        <v>12.84935790840532</v>
       </c>
       <c r="E20">
-        <v>6.462543067265544</v>
+        <v>11.90750146811009</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.174782677280966</v>
+        <v>3.873913283645754</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>79.01467278487559</v>
+        <v>64.94265597160839</v>
       </c>
       <c r="J20">
-        <v>4.235865447328123</v>
+        <v>7.475011048804417</v>
       </c>
       <c r="K20">
-        <v>15.15173037495961</v>
+        <v>21.2149189044902</v>
       </c>
       <c r="L20">
-        <v>10.42481264030928</v>
+        <v>15.16628203345271</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.05983031174313</v>
+        <v>22.10601431750975</v>
       </c>
       <c r="C21">
-        <v>16.3535368540479</v>
+        <v>13.08118229684002</v>
       </c>
       <c r="D21">
-        <v>9.067620879114667</v>
+        <v>12.84904888752343</v>
       </c>
       <c r="E21">
-        <v>6.436380365238706</v>
+        <v>11.87175713064083</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.156143998536669</v>
+        <v>3.868934956607706</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>83.19574356478742</v>
+        <v>66.37830814098982</v>
       </c>
       <c r="J21">
-        <v>4.216756404464519</v>
+        <v>7.467660945801923</v>
       </c>
       <c r="K21">
-        <v>15.8032667170489</v>
+        <v>21.2010805808369</v>
       </c>
       <c r="L21">
-        <v>10.68502559813222</v>
+        <v>15.17407055861453</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.53629710593432</v>
+        <v>22.05651437361765</v>
       </c>
       <c r="C22">
-        <v>16.94355180184008</v>
+        <v>13.25774354113702</v>
       </c>
       <c r="D22">
-        <v>9.239826501007357</v>
+        <v>12.85097120503119</v>
       </c>
       <c r="E22">
-        <v>6.423169438092449</v>
+        <v>11.84974077465717</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.143842437285608</v>
+        <v>3.865792056436055</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>85.8951240783534</v>
+        <v>67.29898210960643</v>
       </c>
       <c r="J22">
-        <v>4.204461188234024</v>
+        <v>7.463055925306955</v>
       </c>
       <c r="K22">
-        <v>16.24449643798105</v>
+        <v>21.19757443487261</v>
       </c>
       <c r="L22">
-        <v>10.86114988145353</v>
+        <v>15.18110497407319</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.27191915378618</v>
+        <v>22.08226634075295</v>
       </c>
       <c r="C23">
-        <v>16.62932400345384</v>
+        <v>13.16363942856108</v>
       </c>
       <c r="D23">
-        <v>9.147319859542062</v>
+        <v>12.84975095033503</v>
       </c>
       <c r="E23">
-        <v>6.429848887293351</v>
+        <v>11.8613684426029</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.150422709810811</v>
+        <v>3.867459396712092</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>84.45713227864559</v>
+        <v>66.8092674767704</v>
       </c>
       <c r="J23">
-        <v>4.211007506248967</v>
+        <v>7.46549559440637</v>
       </c>
       <c r="K23">
-        <v>16.00751486347005</v>
+        <v>21.19893823682596</v>
       </c>
       <c r="L23">
-        <v>10.76656407386545</v>
+        <v>15.17717293463096</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.3846397917878</v>
+        <v>22.19439846632192</v>
       </c>
       <c r="C24">
-        <v>15.42330914432322</v>
+        <v>12.80466130117882</v>
       </c>
       <c r="D24">
-        <v>8.809584284189105</v>
+        <v>12.84939883737879</v>
       </c>
       <c r="E24">
-        <v>6.463033020501316</v>
+        <v>11.90810842676396</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.175086060882547</v>
+        <v>3.873996531482862</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>78.94571174096306</v>
+        <v>64.91890638510303</v>
       </c>
       <c r="J24">
-        <v>4.236181432442654</v>
+        <v>7.475134551103682</v>
       </c>
       <c r="K24">
-        <v>15.14132605160297</v>
+        <v>21.21523838785487</v>
       </c>
       <c r="L24">
-        <v>10.42065572231989</v>
+        <v>15.16618760735058</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.52899655400874</v>
+        <v>22.34618788179274</v>
       </c>
       <c r="C25">
-        <v>14.08294939608447</v>
+        <v>12.41379333168429</v>
       </c>
       <c r="D25">
-        <v>8.469593668490244</v>
+        <v>12.85814366758359</v>
       </c>
       <c r="E25">
-        <v>6.51412221633394</v>
+        <v>11.9643144815985</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.201498300545243</v>
+        <v>3.88152799226588</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>72.83329719271687</v>
+        <v>62.8101354467573</v>
       </c>
       <c r="J25">
-        <v>4.26433204335214</v>
+        <v>7.486391287498408</v>
       </c>
       <c r="K25">
-        <v>14.26704955618841</v>
+        <v>21.25650146105404</v>
       </c>
       <c r="L25">
-        <v>10.07102669689162</v>
+        <v>15.16270604073964</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_151/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_151/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.48411053931328</v>
+        <v>12.97857605202121</v>
       </c>
       <c r="C2">
-        <v>12.12474253386311</v>
+        <v>13.05898866932961</v>
       </c>
       <c r="D2">
-        <v>12.87242235501401</v>
+        <v>8.238170034971072</v>
       </c>
       <c r="E2">
-        <v>12.01070280666081</v>
+        <v>6.563599701917205</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.887492531174642</v>
+        <v>2.22107968577041</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>61.20418227962203</v>
+        <v>68.17057679634327</v>
       </c>
       <c r="J2">
-        <v>7.495427481341818</v>
+        <v>4.286074396472825</v>
       </c>
       <c r="K2">
-        <v>21.30710668470582</v>
+        <v>13.6702799747648</v>
       </c>
       <c r="L2">
-        <v>15.16734931949151</v>
+        <v>9.831607820581983</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.59371181254442</v>
+        <v>12.65208226827798</v>
       </c>
       <c r="C3">
-        <v>11.92906728949868</v>
+        <v>12.34176101991631</v>
       </c>
       <c r="D3">
-        <v>12.88698142457251</v>
+        <v>8.092399853610722</v>
       </c>
       <c r="E3">
-        <v>12.04527495031158</v>
+        <v>6.60399366835487</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.891799353551133</v>
+        <v>2.234555097772168</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>60.08628510378195</v>
+        <v>64.90596693342286</v>
       </c>
       <c r="J3">
-        <v>7.502022298370764</v>
+        <v>4.301509207574147</v>
       </c>
       <c r="K3">
-        <v>21.35392906340678</v>
+        <v>13.29371363591098</v>
       </c>
       <c r="L3">
-        <v>15.17499305833283</v>
+        <v>9.679768533664538</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.66889880102869</v>
+        <v>12.47357734696184</v>
       </c>
       <c r="C4">
-        <v>11.80937440657771</v>
+        <v>11.89025629791028</v>
       </c>
       <c r="D4">
-        <v>12.8983251591707</v>
+        <v>8.00816141241528</v>
       </c>
       <c r="E4">
-        <v>12.06805272618521</v>
+        <v>6.632027785397825</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.894575297762941</v>
+        <v>2.242964183198746</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>59.38666125117727</v>
+        <v>62.85027809188765</v>
       </c>
       <c r="J4">
-        <v>7.506305255564684</v>
+        <v>4.311350654932546</v>
       </c>
       <c r="K4">
-        <v>21.38882339114314</v>
+        <v>13.07593176568073</v>
       </c>
       <c r="L4">
-        <v>15.18190412831808</v>
+        <v>9.591457096000665</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.70151270148482</v>
+        <v>12.40620616266979</v>
       </c>
       <c r="C5">
-        <v>11.76076542501966</v>
+        <v>11.70356869370696</v>
       </c>
       <c r="D5">
-        <v>12.90355183770694</v>
+        <v>7.975132035888945</v>
       </c>
       <c r="E5">
-        <v>12.07772531922656</v>
+        <v>6.644244047255911</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.89573973764732</v>
+        <v>2.246429447447203</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>59.09844415897171</v>
+        <v>61.9999269183394</v>
       </c>
       <c r="J5">
-        <v>7.508109568495643</v>
+        <v>4.315455346343045</v>
       </c>
       <c r="K5">
-        <v>21.40458309579464</v>
+        <v>12.99052395197224</v>
       </c>
       <c r="L5">
-        <v>15.1852780813473</v>
+        <v>9.556677683159693</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.70704718674945</v>
+        <v>12.39533893928838</v>
       </c>
       <c r="C6">
-        <v>11.75270556829371</v>
+        <v>11.67241034965559</v>
       </c>
       <c r="D6">
-        <v>12.90445618458049</v>
+        <v>7.969725232373549</v>
       </c>
       <c r="E6">
-        <v>12.07935504732114</v>
+        <v>6.646319823315797</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.895935102629092</v>
+        <v>2.247007300839054</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>59.05040414801791</v>
+        <v>61.85797301297779</v>
       </c>
       <c r="J6">
-        <v>7.508412741104088</v>
+        <v>4.316142689883504</v>
       </c>
       <c r="K6">
-        <v>21.40729283039027</v>
+        <v>12.97654271397863</v>
       </c>
       <c r="L6">
-        <v>15.18587199973509</v>
+        <v>9.550974760379766</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.66933066166354</v>
+        <v>12.47264721811217</v>
       </c>
       <c r="C7">
-        <v>11.80871810314507</v>
+        <v>11.88774931294035</v>
       </c>
       <c r="D7">
-        <v>12.89839320324848</v>
+        <v>8.007710742045152</v>
       </c>
       <c r="E7">
-        <v>12.06818159237187</v>
+        <v>6.632189356739973</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.894590867112652</v>
+        <v>2.243010755443919</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>59.38278658061653</v>
+        <v>62.8388607233311</v>
       </c>
       <c r="J7">
-        <v>7.506329350115561</v>
+        <v>4.31140562745677</v>
       </c>
       <c r="K7">
-        <v>21.38902970415226</v>
+        <v>13.07476645026213</v>
       </c>
       <c r="L7">
-        <v>15.18194737294536</v>
+        <v>9.590983193025854</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.52025739052491</v>
+        <v>12.86135414193164</v>
       </c>
       <c r="C8">
-        <v>12.05721157370699</v>
+        <v>12.81404476669286</v>
       </c>
       <c r="D8">
-        <v>12.87694296946927</v>
+        <v>8.186799846598742</v>
       </c>
       <c r="E8">
-        <v>12.02230187965434</v>
+        <v>6.576843741456925</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.888950309691135</v>
+        <v>2.225700820354584</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>60.82160234635716</v>
+        <v>67.05566011478264</v>
       </c>
       <c r="J8">
-        <v>7.497652990121972</v>
+        <v>4.291322309934173</v>
       </c>
       <c r="K8">
-        <v>21.32197256916447</v>
+        <v>13.53762842314136</v>
       </c>
       <c r="L8">
-        <v>15.16952458614384</v>
+        <v>9.778214824694663</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.2909689304992</v>
+        <v>13.80441142010341</v>
       </c>
       <c r="C9">
-        <v>12.54578294919182</v>
+        <v>14.54008845353036</v>
       </c>
       <c r="D9">
-        <v>12.85397933904996</v>
+        <v>8.581069929047151</v>
       </c>
       <c r="E9">
-        <v>11.94460572883303</v>
+        <v>6.494991723228251</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.87892631133507</v>
+        <v>2.192598383479526</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>63.52922325953856</v>
+        <v>74.9166160324535</v>
       </c>
       <c r="J9">
-        <v>7.482483834886984</v>
+        <v>4.254701435563566</v>
       </c>
       <c r="K9">
-        <v>21.23944985248574</v>
+        <v>14.55401424496995</v>
       </c>
       <c r="L9">
-        <v>15.16275978330394</v>
+        <v>10.18587656604602</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.16152002836192</v>
+        <v>14.61705719375783</v>
       </c>
       <c r="C10">
-        <v>12.90246905908799</v>
+        <v>15.75352810214049</v>
       </c>
       <c r="D10">
-        <v>12.84877626258102</v>
+        <v>8.899225061439934</v>
       </c>
       <c r="E10">
-        <v>11.89496761212062</v>
+        <v>6.452753649143996</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.872184705621169</v>
+        <v>2.168422963906089</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>65.43777594361731</v>
+        <v>80.45361922255594</v>
       </c>
       <c r="J10">
-        <v>7.472451065109648</v>
+        <v>4.229278542654972</v>
       </c>
       <c r="K10">
-        <v>21.20894489323768</v>
+        <v>15.37141193919831</v>
       </c>
       <c r="L10">
-        <v>15.16851148427176</v>
+        <v>10.51257060111572</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.11121964913179</v>
+        <v>15.01529340494565</v>
       </c>
       <c r="C11">
-        <v>13.06362062828773</v>
+        <v>16.29472860234662</v>
       </c>
       <c r="D11">
-        <v>12.84894507044995</v>
+        <v>9.050810031923955</v>
       </c>
       <c r="E11">
-        <v>11.87399489102207</v>
+        <v>6.437854062072403</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.869251076678937</v>
+        <v>2.157357584176858</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>66.28628814356871</v>
+        <v>82.92685029018145</v>
       </c>
       <c r="J11">
-        <v>7.468125620658182</v>
+        <v>4.217982769628936</v>
       </c>
       <c r="K11">
-        <v>21.20165476032636</v>
+        <v>15.76017429407553</v>
       </c>
       <c r="L11">
-        <v>15.17345247867243</v>
+        <v>10.66782053855896</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.09341628628425</v>
+        <v>15.17047137559008</v>
       </c>
       <c r="C12">
-        <v>13.12443561276696</v>
+        <v>16.49826605322986</v>
       </c>
       <c r="D12">
-        <v>12.84937347482108</v>
+        <v>9.109269550443393</v>
       </c>
       <c r="E12">
-        <v>11.8662837038226</v>
+        <v>6.432874728136347</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.868159182485225</v>
+        <v>2.153147762318396</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>66.6045931623481</v>
+        <v>83.85762275665041</v>
       </c>
       <c r="J12">
-        <v>7.466521773031251</v>
+        <v>4.213739021020823</v>
       </c>
       <c r="K12">
-        <v>21.19984411225524</v>
+        <v>15.91001147590254</v>
       </c>
       <c r="L12">
-        <v>15.17565714173966</v>
+        <v>10.72764144294963</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.09719506961158</v>
+        <v>15.13685146425821</v>
       </c>
       <c r="C13">
-        <v>13.11134812260742</v>
+        <v>16.45449006628816</v>
       </c>
       <c r="D13">
-        <v>12.84926500413686</v>
+        <v>9.096630865281732</v>
       </c>
       <c r="E13">
-        <v>11.86793419196613</v>
+        <v>6.433916894567575</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.868393498320987</v>
+        <v>2.154055469411373</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>66.53617695286576</v>
+        <v>83.65740677743297</v>
       </c>
       <c r="J13">
-        <v>7.466865676588435</v>
+        <v>4.214651576133634</v>
       </c>
       <c r="K13">
-        <v>21.20019177954689</v>
+        <v>15.87762112709052</v>
       </c>
       <c r="L13">
-        <v>15.17516750231528</v>
+        <v>10.71471065711664</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.10972996453604</v>
+        <v>15.02797054135929</v>
       </c>
       <c r="C14">
-        <v>13.06862839660594</v>
+        <v>16.31150082474942</v>
       </c>
       <c r="D14">
-        <v>12.84897301227787</v>
+        <v>9.055597858099517</v>
       </c>
       <c r="E14">
-        <v>11.87335586565573</v>
+        <v>6.437430860052147</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.869160865757628</v>
+        <v>2.157011694816511</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>66.31253654491583</v>
+        <v>83.00353620912688</v>
       </c>
       <c r="J14">
-        <v>7.467992988754024</v>
+        <v>4.217632989389291</v>
       </c>
       <c r="K14">
-        <v>21.20148674459822</v>
+        <v>15.77244766159613</v>
       </c>
       <c r="L14">
-        <v>15.17362717570123</v>
+        <v>10.67272086866407</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.11757027235761</v>
+        <v>14.96185662148886</v>
       </c>
       <c r="C15">
-        <v>13.04243256901653</v>
+        <v>16.22373839283869</v>
       </c>
       <c r="D15">
-        <v>12.84884161754324</v>
+        <v>9.030604132672511</v>
       </c>
       <c r="E15">
-        <v>11.87670683050579</v>
+        <v>6.43967094899429</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.86963337161128</v>
+        <v>2.158819594903169</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>66.17515355765188</v>
+        <v>82.6022949408738</v>
       </c>
       <c r="J15">
-        <v>7.468687935661192</v>
+        <v>4.219463421187163</v>
       </c>
       <c r="K15">
-        <v>21.20240373454427</v>
+        <v>15.70837385202811</v>
       </c>
       <c r="L15">
-        <v>15.17272710608371</v>
+        <v>10.64713778887908</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.16498088466631</v>
+        <v>14.59162763361509</v>
       </c>
       <c r="C16">
-        <v>12.89191079515195</v>
+        <v>15.71795361290456</v>
       </c>
       <c r="D16">
-        <v>12.84881624650704</v>
+        <v>8.889462300402602</v>
       </c>
       <c r="E16">
-        <v>11.89637054202662</v>
+        <v>6.453817676714745</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.872379092662496</v>
+        <v>2.169143942081442</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>65.38191205266756</v>
+        <v>80.29113082567837</v>
       </c>
       <c r="J16">
-        <v>7.472738526003553</v>
+        <v>4.230021754147335</v>
       </c>
       <c r="K16">
-        <v>21.20955411599441</v>
+        <v>15.34636066867129</v>
       </c>
       <c r="L16">
-        <v>15.16823530193459</v>
+        <v>10.502564350732</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.1962718880725</v>
+        <v>14.37198985013609</v>
       </c>
       <c r="C17">
-        <v>12.79925057072227</v>
+        <v>15.40499454521574</v>
       </c>
       <c r="D17">
-        <v>12.8494500848548</v>
+        <v>8.804677693856327</v>
       </c>
       <c r="E17">
-        <v>11.90884506530849</v>
+        <v>6.4636295837569</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.874097509052209</v>
+        <v>2.175453705029012</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>64.89011070273692</v>
+        <v>78.86210519964115</v>
       </c>
       <c r="J17">
-        <v>7.475284382889678</v>
+        <v>4.236564564267787</v>
       </c>
       <c r="K17">
-        <v>21.21562985062571</v>
+        <v>15.12872750835124</v>
       </c>
       <c r="L17">
-        <v>15.16607467631907</v>
+        <v>10.41562204982442</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.21507730224179</v>
+        <v>14.2483289241204</v>
       </c>
       <c r="C18">
-        <v>12.74585359060044</v>
+        <v>15.22396017499507</v>
       </c>
       <c r="D18">
-        <v>12.85005334514398</v>
+        <v>8.756551783217953</v>
       </c>
       <c r="E18">
-        <v>11.91617145358285</v>
+        <v>6.469676384606568</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.87509843891486</v>
+        <v>2.179077202385692</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>64.60539534795774</v>
+        <v>78.03581775505933</v>
       </c>
       <c r="J18">
-        <v>7.476771153923885</v>
+        <v>4.240353493979804</v>
       </c>
       <c r="K18">
-        <v>21.21974429720743</v>
+        <v>15.00512930300467</v>
       </c>
       <c r="L18">
-        <v>15.16505078420695</v>
+        <v>10.36623413906419</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.2215829116163</v>
+        <v>14.20691071506497</v>
       </c>
       <c r="C19">
-        <v>12.72775846756162</v>
+        <v>15.16248470602683</v>
       </c>
       <c r="D19">
-        <v>12.85029859633925</v>
+        <v>8.740365182663867</v>
       </c>
       <c r="E19">
-        <v>11.91867805613975</v>
+        <v>6.471791794269442</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.875439494998068</v>
+        <v>2.180303349571324</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>64.50868439516387</v>
+        <v>77.755284380262</v>
       </c>
       <c r="J19">
-        <v>7.47727841273714</v>
+        <v>4.241640911857799</v>
       </c>
       <c r="K19">
-        <v>21.22124374150671</v>
+        <v>14.96354742513699</v>
       </c>
       <c r="L19">
-        <v>15.16474171564657</v>
+        <v>10.34961649011426</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.19285724772692</v>
+        <v>14.39509271096266</v>
       </c>
       <c r="C20">
-        <v>12.80912526276141</v>
+        <v>15.43841511666889</v>
       </c>
       <c r="D20">
-        <v>12.84935790840532</v>
+        <v>8.813636463287493</v>
       </c>
       <c r="E20">
-        <v>11.90750146811009</v>
+        <v>6.462543067265638</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.873913283645754</v>
+        <v>2.174782677280994</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>64.94265597160839</v>
+        <v>79.01467278487561</v>
       </c>
       <c r="J20">
-        <v>7.475011048804417</v>
+        <v>4.235865447328121</v>
       </c>
       <c r="K20">
-        <v>21.2149189044902</v>
+        <v>15.15173037495961</v>
       </c>
       <c r="L20">
-        <v>15.16628203345271</v>
+        <v>10.42481264030933</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.10601431750975</v>
+        <v>15.05983031174316</v>
       </c>
       <c r="C21">
-        <v>13.08118229684002</v>
+        <v>16.35353685404787</v>
       </c>
       <c r="D21">
-        <v>12.84904888752343</v>
+        <v>9.067620879114621</v>
       </c>
       <c r="E21">
-        <v>11.87175713064083</v>
+        <v>6.436380365238876</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.868934956607706</v>
+        <v>2.156143998536844</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>66.37830814098982</v>
+        <v>83.19574356478682</v>
       </c>
       <c r="J21">
-        <v>7.467660945801923</v>
+        <v>4.216756404464618</v>
       </c>
       <c r="K21">
-        <v>21.2010805808369</v>
+        <v>15.80326671704892</v>
       </c>
       <c r="L21">
-        <v>15.17407055861453</v>
+        <v>10.68502559813222</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.05651437361765</v>
+        <v>15.53629710593423</v>
       </c>
       <c r="C22">
-        <v>13.25774354113702</v>
+        <v>16.94355180183991</v>
       </c>
       <c r="D22">
-        <v>12.85097120503119</v>
+        <v>9.239826501007361</v>
       </c>
       <c r="E22">
-        <v>11.84974077465717</v>
+        <v>6.423169438092427</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.865792056436055</v>
+        <v>2.143842437285582</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>67.29898210960643</v>
+        <v>85.89512407835292</v>
       </c>
       <c r="J22">
-        <v>7.463055925306955</v>
+        <v>4.204461188234022</v>
       </c>
       <c r="K22">
-        <v>21.19757443487261</v>
+        <v>16.24449643798107</v>
       </c>
       <c r="L22">
-        <v>15.18110497407319</v>
+        <v>10.86114988145351</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.08226634075295</v>
+        <v>15.2719191537862</v>
       </c>
       <c r="C23">
-        <v>13.16363942856108</v>
+        <v>16.62932400345388</v>
       </c>
       <c r="D23">
-        <v>12.84975095033503</v>
+        <v>9.147319859542057</v>
       </c>
       <c r="E23">
-        <v>11.8613684426029</v>
+        <v>6.429848887293363</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.867459396712092</v>
+        <v>2.150422709810786</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>66.8092674767704</v>
+        <v>84.45713227864599</v>
       </c>
       <c r="J23">
-        <v>7.46549559440637</v>
+        <v>4.211007506248933</v>
       </c>
       <c r="K23">
-        <v>21.19893823682596</v>
+        <v>16.0075148634701</v>
       </c>
       <c r="L23">
-        <v>15.17717293463096</v>
+        <v>10.76656407386544</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.19439846632192</v>
+        <v>14.38463979178778</v>
       </c>
       <c r="C24">
-        <v>12.80466130117882</v>
+        <v>15.42330914432313</v>
       </c>
       <c r="D24">
-        <v>12.84939883737879</v>
+        <v>8.809584284189139</v>
       </c>
       <c r="E24">
-        <v>11.90810842676396</v>
+        <v>6.4630330205013</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.873996531482862</v>
+        <v>2.175086060882301</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>64.91890638510303</v>
+        <v>78.94571174096326</v>
       </c>
       <c r="J24">
-        <v>7.475134551103682</v>
+        <v>4.236181432442692</v>
       </c>
       <c r="K24">
-        <v>21.21523838785487</v>
+        <v>15.14132605160295</v>
       </c>
       <c r="L24">
-        <v>15.16618760735058</v>
+        <v>10.4206557223199</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.34618788179274</v>
+        <v>13.52899655400864</v>
       </c>
       <c r="C25">
-        <v>12.41379333168429</v>
+        <v>14.08294939608448</v>
       </c>
       <c r="D25">
-        <v>12.85814366758359</v>
+        <v>8.469593668490374</v>
       </c>
       <c r="E25">
-        <v>11.9643144815985</v>
+        <v>6.514122216334084</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.88152799226588</v>
+        <v>2.201498300545264</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>62.8101354467573</v>
+        <v>72.83329719271767</v>
       </c>
       <c r="J25">
-        <v>7.486391287498408</v>
+        <v>4.264332043352108</v>
       </c>
       <c r="K25">
-        <v>21.25650146105404</v>
+        <v>14.2670495561883</v>
       </c>
       <c r="L25">
-        <v>15.16270604073964</v>
+        <v>10.07102669689159</v>
       </c>
       <c r="M25">
         <v>0</v>
